--- a/spec/files/0_4_0_lhs_discrete_continuous.xlsx
+++ b/spec/files/0_4_0_lhs_discrete_continuous.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="761">
   <si>
     <t>type</t>
   </si>
@@ -1431,12 +1431,6 @@
     <t>true/false</t>
   </si>
   <si>
-    <t>Allow Multiple Jobs</t>
-  </si>
-  <si>
-    <t>Use Server As Worker</t>
-  </si>
-  <si>
     <t>Simulate Data Point Filename</t>
   </si>
   <si>
@@ -1870,9 +1864,6 @@
   </si>
   <si>
     <t>Use a minimum of 2 cores for server.</t>
-  </si>
-  <si>
-    <t>Enable this for certain analysis. Typically do not use the server as a worker.</t>
   </si>
   <si>
     <t>Problem Type</t>
@@ -4072,7 +4063,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4105,9 +4096,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4170,12 +4158,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1565">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6041,16 +6029,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
@@ -6059,7 +6047,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="12"/>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -6071,7 +6059,7 @@
       <c r="A2" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -6081,8 +6069,8 @@
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>756</v>
+      <c r="B3" s="42" t="s">
+        <v>753</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -6092,8 +6080,8 @@
       <c r="A4" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>515</v>
+      <c r="B4" s="16" t="s">
+        <v>513</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>458</v>
@@ -6101,65 +6089,65 @@
     </row>
     <row r="5" spans="1:6" ht="42">
       <c r="A5" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>726</v>
+        <v>468</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>723</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="C7" s="24" t="str">
+      <c r="B7" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="C7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
         <v>Recommended for Server</v>
       </c>
-      <c r="D7" s="24" t="str">
+      <c r="D7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>4 Cores with 40 GB</v>
       </c>
-      <c r="E7" s="24" t="str">
+      <c r="E7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="C8" s="24" t="str">
+      <c r="B8" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="C8" s="23" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
         <v>Recommended for worker</v>
       </c>
-      <c r="D8" s="24" t="str">
+      <c r="D8" s="23" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>16 Cores with 160 GB</v>
       </c>
-      <c r="E8" s="24" t="str">
+      <c r="E8" s="23" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$0.84/hour</v>
       </c>
@@ -6171,40 +6159,40 @@
       <c r="A9" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="24" t="s">
-        <v>665</v>
-      </c>
-      <c r="E9" s="24" t="str">
+      <c r="D9" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="E9" s="23" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
         <v>$1.12/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
-      <c r="A10" s="23" t="s">
-        <v>727</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>728</v>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="22" customFormat="1" ht="28">
+      <c r="A10" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>725</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="6"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -6214,41 +6202,41 @@
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>716</v>
+      <c r="B13" s="16" t="s">
+        <v>713</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>759</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>618</v>
+      <c r="B14" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="46" t="s">
-        <v>760</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>618</v>
+      <c r="B15" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B16" s="18" t="b">
-        <v>1</v>
+      <c r="B16" s="17" t="s">
+        <v>464</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>437</v>
@@ -6256,400 +6244,375 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B17" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="22" customFormat="1">
+      <c r="B21" s="17"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A22" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
-      <c r="A21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="8" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="8" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="23" customFormat="1">
-      <c r="B23" s="18"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
-      <c r="A24" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>614</v>
-      </c>
-      <c r="C24" s="6" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>Sample Method</v>
+      </c>
+      <c r="B23" s="17" t="str">
+        <f>IF(D23&lt;&gt;"",D23,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>all_variables</v>
+      </c>
+      <c r="C23" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))</f>
+        <v>individual_variables / all_variables</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" ht="28">
+      <c r="A24" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>Number of Samples</v>
+      </c>
+      <c r="B24" s="17">
+        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))</f>
+        <v>positive integer (if individual, total simulations is this times each variable)</v>
+      </c>
+      <c r="D24" s="25">
+        <v>5</v>
+      </c>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B25" s="17" t="str">
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C25" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" s="22" customFormat="1">
+      <c r="A26" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B26" s="17" t="str">
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C26" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:6" s="22" customFormat="1">
+      <c r="A27" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B27" s="17" t="str">
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C27" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:6" s="22" customFormat="1">
+      <c r="A28" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B28" s="17" t="str">
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C28" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:6" s="22" customFormat="1">
+      <c r="A29" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B29" s="17" t="str">
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C29" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" s="22" customFormat="1">
+      <c r="A30" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B30" s="17" t="str">
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C30" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:6" s="22" customFormat="1">
+      <c r="A31" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B31" s="17" t="str">
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C31" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B32" s="17" t="str">
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C32" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" s="22" customFormat="1">
+      <c r="A33" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B33" s="17" t="str">
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C33" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B20,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:6" s="22" customFormat="1">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" ht="28">
+      <c r="A35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="28">
+      <c r="A38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28">
+      <c r="A39" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>Sample Method</v>
-      </c>
-      <c r="B25" s="18" t="str">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>all_variables</v>
-      </c>
-      <c r="C25" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v>individual_variables / all_variables</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" ht="28">
-      <c r="A26" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>Number of Samples</v>
-      </c>
-      <c r="B26" s="18">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>5</v>
-      </c>
-      <c r="C26" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v>positive integer (if individual, total simulations is this times each variable)</v>
-      </c>
-      <c r="D26" s="26">
-        <v>5</v>
-      </c>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B27" s="18" t="str">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C27" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="23"/>
-    </row>
-    <row r="28" spans="1:6" s="23" customFormat="1">
-      <c r="A28" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B28" s="18" t="str">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C28" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D28" s="26"/>
-    </row>
-    <row r="29" spans="1:6" s="23" customFormat="1">
-      <c r="A29" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B29" s="18" t="str">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C29" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D29" s="26"/>
-    </row>
-    <row r="30" spans="1:6" s="23" customFormat="1">
-      <c r="A30" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B30" s="18" t="str">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C30" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D30" s="26"/>
-    </row>
-    <row r="31" spans="1:6" s="23" customFormat="1">
-      <c r="A31" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B31" s="18" t="str">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C31" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D31" s="26"/>
-    </row>
-    <row r="32" spans="1:6" s="23" customFormat="1">
-      <c r="A32" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B32" s="18" t="str">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C32" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D32" s="26"/>
-    </row>
-    <row r="33" spans="1:6" s="23" customFormat="1">
-      <c r="A33" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B33" s="18" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C33" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B34" s="18" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C34" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="1:6" s="23" customFormat="1">
-      <c r="A35" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B35" s="18" t="str">
-        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C35" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D35" s="26"/>
-    </row>
-    <row r="36" spans="1:6" s="23" customFormat="1">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
-      <c r="A37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>619</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
-      <c r="A40" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="28">
-      <c r="A41" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="56">
-      <c r="A43" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="8" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="2" customFormat="1">
-      <c r="B44" s="25"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
-      <c r="A46" s="6" t="s">
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1">
+      <c r="B42" s="24"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A44" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>748</v>
-      </c>
-      <c r="C46" s="6" t="s">
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1">
+      <c r="B45" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="2" customFormat="1">
-      <c r="B47" s="25" t="s">
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="7" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="23" customFormat="1">
-      <c r="B48" s="18"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
-      <c r="A49" s="6" t="s">
+    </row>
+    <row r="46" spans="1:6" s="22" customFormat="1">
+      <c r="B46" s="17"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A47" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="8" t="s">
         <v>742</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="8" t="s">
-        <v>745</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>AnalysisType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B17">
-      <formula1>TrueFalse</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>Workflow</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
@@ -6670,7 +6633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="C3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -6681,7 +6644,7 @@
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
     <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="22" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
@@ -6701,194 +6664,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="31" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+    </row>
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
+      <c r="A2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+    </row>
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
+      <c r="A3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>644</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="P3" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32" t="s">
+      <c r="Q3" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-    </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
-      <c r="A2" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>549</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>548</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-    </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
-      <c r="A3" s="34" t="s">
+      <c r="R3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="33"/>
+    </row>
+    <row r="4" spans="1:26" s="27" customFormat="1">
+      <c r="A4" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>647</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="P3" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q3" s="37" t="s">
-        <v>477</v>
-      </c>
-      <c r="R3" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="X3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="34"/>
-    </row>
-    <row r="4" spans="1:26" s="28" customFormat="1">
-      <c r="A4" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-    </row>
-    <row r="5" spans="1:26" s="22" customFormat="1">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+    </row>
+    <row r="5" spans="1:26" s="21" customFormat="1">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6912,12 +6875,12 @@
         <v>83</v>
       </c>
       <c r="K5" s="15"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
@@ -6928,63 +6891,63 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="27" customFormat="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="1:26" s="26" customFormat="1">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41" t="s">
-        <v>718</v>
-      </c>
-      <c r="E6" s="41" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40" t="s">
+        <v>715</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41">
-        <v>0</v>
-      </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42">
-        <v>0</v>
-      </c>
-      <c r="L6" s="42">
+      <c r="H6" s="40"/>
+      <c r="I6" s="40">
+        <v>0</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41">
+        <v>0</v>
+      </c>
+      <c r="L6" s="41">
         <v>70</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="41">
         <v>20</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="41">
         <v>11.66666667</v>
       </c>
-      <c r="O6" s="42">
+      <c r="O6" s="41">
         <v>5</v>
       </c>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="41" t="s">
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-    </row>
-    <row r="7" spans="1:26" s="27" customFormat="1">
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+    </row>
+    <row r="7" spans="1:26" s="26" customFormat="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -6999,13 +6962,13 @@
         <v>150</v>
       </c>
       <c r="J7" s="15"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
@@ -7016,7 +6979,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1">
+    <row r="8" spans="1:26" s="21" customFormat="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -7037,13 +7000,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -7054,7 +7017,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1">
+    <row r="9" spans="1:26" s="21" customFormat="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -7075,13 +7038,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="15"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
@@ -7092,7 +7055,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1">
+    <row r="10" spans="1:26" s="21" customFormat="1">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -7113,13 +7076,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="15"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
@@ -7130,7 +7093,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1">
+    <row r="11" spans="1:26" s="21" customFormat="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -7151,13 +7114,13 @@
         <v>15</v>
       </c>
       <c r="J11" s="15"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
@@ -7168,7 +7131,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="28" customFormat="1">
+    <row r="12" spans="1:26" s="27" customFormat="1">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -7189,13 +7152,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="15"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
@@ -7206,7 +7169,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="27" customFormat="1">
+    <row r="13" spans="1:26" s="26" customFormat="1">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -7227,13 +7190,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="15"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
@@ -7244,179 +7207,179 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1">
-      <c r="A14" s="38" t="b">
+    <row r="14" spans="1:26" s="21" customFormat="1">
+      <c r="A14" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-    </row>
-    <row r="15" spans="1:26" s="22" customFormat="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+    </row>
+    <row r="15" spans="1:26" s="21" customFormat="1">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
-        <v>719</v>
-      </c>
-      <c r="E15" s="41" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40" t="s">
+        <v>716</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41" t="s">
+      <c r="F15" s="40"/>
+      <c r="G15" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41">
-        <v>0</v>
-      </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41">
-        <v>0</v>
-      </c>
-      <c r="L15" s="41">
+      <c r="H15" s="40"/>
+      <c r="I15" s="40">
+        <v>0</v>
+      </c>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40">
+        <v>0</v>
+      </c>
+      <c r="L15" s="40">
         <v>359</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M15" s="40">
         <v>180</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15" s="41">
         <v>59.833333330000002</v>
       </c>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="41" t="s">
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-    </row>
-    <row r="16" spans="1:26" s="28" customFormat="1" ht="15">
-      <c r="A16" s="44" t="b">
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+    </row>
+    <row r="16" spans="1:26" s="27" customFormat="1" ht="15">
+      <c r="A16" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="D16" s="44" t="s">
+      <c r="C16" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-    </row>
-    <row r="17" spans="1:26" s="27" customFormat="1" ht="15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45" t="s">
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+    </row>
+    <row r="17" spans="1:26" s="26" customFormat="1" ht="15">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45" t="s">
-        <v>720</v>
-      </c>
-      <c r="E17" s="45" t="s">
+      <c r="C17" s="44"/>
+      <c r="D17" s="44" t="s">
+        <v>717</v>
+      </c>
+      <c r="E17" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45" t="s">
+      <c r="F17" s="44"/>
+      <c r="G17" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45">
+      <c r="H17" s="44"/>
+      <c r="I17" s="44">
         <v>13</v>
       </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="41">
-        <v>0</v>
-      </c>
-      <c r="L17" s="41">
+      <c r="J17" s="44"/>
+      <c r="K17" s="40">
+        <v>0</v>
+      </c>
+      <c r="L17" s="40">
         <v>50</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="44">
         <v>25</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="41">
         <v>8.3333333330000006</v>
       </c>
-      <c r="O17" s="42"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41" t="s">
-        <v>721</v>
-      </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-    </row>
-    <row r="18" spans="1:26" s="22" customFormat="1" ht="15">
+      <c r="O17" s="41"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40" t="s">
+        <v>718</v>
+      </c>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+    </row>
+    <row r="18" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7454,7 +7417,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="19" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7492,7 +7455,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="20" spans="1:26" s="27" customFormat="1" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7530,97 +7493,97 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A21" s="44" t="b">
+    <row r="21" spans="1:26" s="21" customFormat="1" ht="15">
+      <c r="A21" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="D21" s="44" t="s">
+      <c r="C21" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="D21" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-    </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45" t="s">
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+    </row>
+    <row r="22" spans="1:26" s="21" customFormat="1" ht="15">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45" t="s">
-        <v>722</v>
-      </c>
-      <c r="E22" s="45" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="44" t="s">
+        <v>719</v>
+      </c>
+      <c r="E22" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45" t="s">
+      <c r="F22" s="44"/>
+      <c r="G22" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45">
+      <c r="H22" s="44"/>
+      <c r="I22" s="44">
         <v>10</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="41">
+      <c r="J22" s="44"/>
+      <c r="K22" s="40">
         <v>10</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="40">
         <v>80</v>
       </c>
-      <c r="M22" s="45">
+      <c r="M22" s="44">
         <v>50</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="40">
         <v>10</v>
       </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41" t="s">
-        <v>723</v>
-      </c>
-      <c r="Q22" s="41" t="s">
-        <v>724</v>
-      </c>
-      <c r="R22" s="41" t="s">
-        <v>713</v>
-      </c>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-    </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" ht="15">
+      <c r="O22" s="40"/>
+      <c r="P22" s="40" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q22" s="40" t="s">
+        <v>721</v>
+      </c>
+      <c r="R22" s="40" t="s">
+        <v>710</v>
+      </c>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+    </row>
+    <row r="23" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7658,7 +7621,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="24" spans="1:26" s="27" customFormat="1" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7696,7 +7659,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="25" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7734,93 +7697,93 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A26" s="44" t="b">
+    <row r="26" spans="1:26" s="21" customFormat="1" ht="15">
+      <c r="A26" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="D26" s="44" t="s">
+      <c r="B26" s="37" t="s">
+        <v>748</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="D26" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-    </row>
-    <row r="27" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45" t="s">
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+    </row>
+    <row r="27" spans="1:26" s="21" customFormat="1" ht="15">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45" t="s">
-        <v>714</v>
-      </c>
-      <c r="E27" s="45" t="s">
+      <c r="C27" s="44"/>
+      <c r="D27" s="44" t="s">
+        <v>711</v>
+      </c>
+      <c r="E27" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45" t="s">
+      <c r="F27" s="44"/>
+      <c r="G27" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45">
+      <c r="H27" s="44"/>
+      <c r="I27" s="44">
         <v>0.4</v>
       </c>
-      <c r="J27" s="45"/>
-      <c r="K27" s="41">
+      <c r="J27" s="44"/>
+      <c r="K27" s="40">
         <v>0.05</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="40">
         <v>0.95</v>
       </c>
-      <c r="M27" s="45">
+      <c r="M27" s="44">
         <v>0.4</v>
       </c>
-      <c r="N27" s="42">
+      <c r="N27" s="41">
         <v>0.15</v>
       </c>
-      <c r="O27" s="42"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41" t="s">
+      <c r="O27" s="41"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-    </row>
-    <row r="28" spans="1:26" s="28" customFormat="1" ht="15">
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+    </row>
+    <row r="28" spans="1:26" s="27" customFormat="1" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7858,7 +7821,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="29" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7898,93 +7861,93 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A30" s="44" t="b">
+    <row r="30" spans="1:26" s="21" customFormat="1" ht="15">
+      <c r="A30" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B30" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="D30" s="44" t="s">
+      <c r="B30" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="D30" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-    </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45" t="s">
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+    </row>
+    <row r="31" spans="1:26" s="21" customFormat="1" ht="15">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45" t="s">
-        <v>737</v>
-      </c>
-      <c r="E31" s="45" t="s">
+      <c r="C31" s="44"/>
+      <c r="D31" s="44" t="s">
+        <v>734</v>
+      </c>
+      <c r="E31" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45" t="s">
+      <c r="F31" s="44"/>
+      <c r="G31" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45">
+      <c r="H31" s="44"/>
+      <c r="I31" s="44">
         <v>0.4</v>
       </c>
-      <c r="J31" s="45"/>
-      <c r="K31" s="41">
+      <c r="J31" s="44"/>
+      <c r="K31" s="40">
         <v>0.05</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="40">
         <v>0.95</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="44">
         <v>0.4</v>
       </c>
-      <c r="N31" s="42">
+      <c r="N31" s="41">
         <v>0.15</v>
       </c>
-      <c r="O31" s="42"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41" t="s">
+      <c r="O31" s="41"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-    </row>
-    <row r="32" spans="1:26" s="28" customFormat="1" ht="15">
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+    </row>
+    <row r="32" spans="1:26" s="27" customFormat="1" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -8022,7 +7985,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="33" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -8040,7 +8003,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -8062,93 +8025,93 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A34" s="44" t="b">
+    <row r="34" spans="1:26" s="21" customFormat="1" ht="15">
+      <c r="A34" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>753</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="D34" s="44" t="s">
+      <c r="B34" s="37" t="s">
+        <v>750</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-    </row>
-    <row r="35" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45" t="s">
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+    </row>
+    <row r="35" spans="1:26" s="21" customFormat="1" ht="15">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45" t="s">
-        <v>715</v>
-      </c>
-      <c r="E35" s="45" t="s">
+      <c r="C35" s="44"/>
+      <c r="D35" s="44" t="s">
+        <v>712</v>
+      </c>
+      <c r="E35" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45" t="s">
+      <c r="F35" s="44"/>
+      <c r="G35" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45">
+      <c r="H35" s="44"/>
+      <c r="I35" s="44">
         <v>0.4</v>
       </c>
-      <c r="J35" s="45"/>
-      <c r="K35" s="41">
+      <c r="J35" s="44"/>
+      <c r="K35" s="40">
         <v>0.05</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L35" s="40">
         <v>0.95</v>
       </c>
-      <c r="M35" s="45">
+      <c r="M35" s="44">
         <v>0.4</v>
       </c>
-      <c r="N35" s="42">
+      <c r="N35" s="41">
         <v>0.15</v>
       </c>
-      <c r="O35" s="42"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41" t="s">
+      <c r="O35" s="41"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-    </row>
-    <row r="36" spans="1:26" s="22" customFormat="1" ht="15">
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+    </row>
+    <row r="36" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -8186,7 +8149,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="37" spans="1:26" s="27" customFormat="1" ht="15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -8204,7 +8167,7 @@
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>84</v>
@@ -8226,97 +8189,97 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="27" customFormat="1">
-      <c r="A38" s="38" t="b">
+    <row r="38" spans="1:26" s="26" customFormat="1">
+      <c r="A38" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="37" t="s">
+        <v>751</v>
+      </c>
+      <c r="C38" s="37" t="s">
         <v>754</v>
       </c>
-      <c r="C38" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
-    </row>
-    <row r="39" spans="1:26" s="22" customFormat="1">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41" t="s">
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+    </row>
+    <row r="39" spans="1:26" s="21" customFormat="1">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41" t="s">
-        <v>725</v>
-      </c>
-      <c r="E39" s="41" t="s">
+      <c r="C39" s="40"/>
+      <c r="D39" s="40" t="s">
+        <v>722</v>
+      </c>
+      <c r="E39" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="F39" s="41" t="s">
-        <v>738</v>
-      </c>
-      <c r="G39" s="41" t="s">
+      <c r="F39" s="40" t="s">
+        <v>735</v>
+      </c>
+      <c r="G39" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41">
-        <v>0</v>
-      </c>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41">
-        <v>0</v>
-      </c>
-      <c r="L39" s="41">
+      <c r="H39" s="40"/>
+      <c r="I39" s="40">
+        <v>0</v>
+      </c>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40">
+        <v>0</v>
+      </c>
+      <c r="L39" s="40">
         <v>10</v>
       </c>
-      <c r="M39" s="41">
+      <c r="M39" s="40">
         <v>5</v>
       </c>
-      <c r="N39" s="41">
+      <c r="N39" s="40">
         <v>1</v>
       </c>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41" t="s">
-        <v>762</v>
-      </c>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41" t="s">
-        <v>713</v>
-      </c>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="41"/>
-    </row>
-    <row r="40" spans="1:26" s="22" customFormat="1">
+      <c r="O39" s="40"/>
+      <c r="P39" s="40" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40" t="s">
+        <v>710</v>
+      </c>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
+    </row>
+    <row r="40" spans="1:26" s="21" customFormat="1">
       <c r="A40" s="15"/>
       <c r="B40" s="15" t="s">
         <v>21</v>
@@ -8356,7 +8319,7 @@
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
     </row>
-    <row r="41" spans="1:26" s="22" customFormat="1">
+    <row r="41" spans="1:26" s="21" customFormat="1">
       <c r="A41" s="15"/>
       <c r="B41" s="15" t="s">
         <v>21</v>
@@ -8394,7 +8357,7 @@
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
     </row>
-    <row r="42" spans="1:26" s="28" customFormat="1">
+    <row r="42" spans="1:26" s="27" customFormat="1">
       <c r="A42" s="15"/>
       <c r="B42" s="15" t="s">
         <v>21</v>
@@ -8413,7 +8376,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
@@ -8432,95 +8395,95 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
     </row>
-    <row r="43" spans="1:26" s="27" customFormat="1">
-      <c r="A43" s="38" t="b">
+    <row r="43" spans="1:26" s="26" customFormat="1">
+      <c r="A43" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B43" s="38" t="s">
-        <v>755</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="D43" s="38" t="s">
+      <c r="B43" s="37" t="s">
+        <v>752</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="D43" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-    </row>
-    <row r="44" spans="1:26" s="49" customFormat="1">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48" t="s">
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+    </row>
+    <row r="44" spans="1:26" s="47" customFormat="1">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48" t="s">
-        <v>740</v>
-      </c>
-      <c r="E44" s="48" t="s">
+      <c r="C44" s="46"/>
+      <c r="D44" s="46" t="s">
+        <v>737</v>
+      </c>
+      <c r="E44" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="F44" s="48" t="s">
-        <v>739</v>
-      </c>
-      <c r="G44" s="48" t="s">
+      <c r="F44" s="46" t="s">
+        <v>736</v>
+      </c>
+      <c r="G44" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48">
-        <v>0</v>
-      </c>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48">
-        <v>0</v>
-      </c>
-      <c r="L44" s="48">
+      <c r="H44" s="46"/>
+      <c r="I44" s="46">
+        <v>0</v>
+      </c>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46">
+        <v>0</v>
+      </c>
+      <c r="L44" s="46">
         <v>1</v>
       </c>
-      <c r="M44" s="48">
+      <c r="M44" s="46">
         <v>0.5</v>
       </c>
-      <c r="N44" s="48">
+      <c r="N44" s="46">
         <v>0.133333333</v>
       </c>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48" t="s">
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
-      <c r="Y44" s="48"/>
-      <c r="Z44" s="48"/>
-    </row>
-    <row r="45" spans="1:26" s="22" customFormat="1">
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="46"/>
+    </row>
+    <row r="45" spans="1:26" s="21" customFormat="1">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
         <v>21</v>
@@ -8538,7 +8501,7 @@
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="15" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>84</v>
@@ -8560,57 +8523,57 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
     </row>
-    <row r="46" spans="1:26" s="49" customFormat="1">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50" t="s">
+    <row r="46" spans="1:26" s="47" customFormat="1">
+      <c r="A46" s="48"/>
+      <c r="B46" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50" t="s">
+      <c r="C46" s="48"/>
+      <c r="D46" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50" t="s">
+      <c r="F46" s="48"/>
+      <c r="G46" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="50" t="b">
+      <c r="H46" s="48"/>
+      <c r="I46" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="M46" s="50" t="b">
+      <c r="M46" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="N46" s="50" t="b">
+      <c r="N46" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50" t="s">
-        <v>763</v>
-      </c>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50" t="s">
-        <v>713</v>
-      </c>
-      <c r="S46" s="50"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="50"/>
-      <c r="V46" s="50"/>
-      <c r="W46" s="50"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="50"/>
-      <c r="Z46" s="50"/>
-    </row>
-    <row r="47" spans="1:26" s="28" customFormat="1">
+      <c r="O46" s="48"/>
+      <c r="P46" s="48" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48" t="s">
+        <v>710</v>
+      </c>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="48"/>
+      <c r="W46" s="48"/>
+      <c r="X46" s="48"/>
+      <c r="Y46" s="48"/>
+      <c r="Z46" s="48"/>
+    </row>
+    <row r="47" spans="1:26" s="27" customFormat="1">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
         <v>21</v>
@@ -8629,7 +8592,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
@@ -8648,45 +8611,45 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
     </row>
-    <row r="48" spans="1:26" s="27" customFormat="1" ht="15">
-      <c r="A48" s="44" t="b">
+    <row r="48" spans="1:26" s="26" customFormat="1" ht="15">
+      <c r="A48" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="C48" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="D48" s="44" t="s">
+      <c r="C48" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="D48" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-    </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15">
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
+    </row>
+    <row r="49" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -8726,7 +8689,7 @@
       <c r="Y49" s="10"/>
       <c r="Z49" s="10"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="50" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -8919,11 +8882,11 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
       <c r="R56" s="15"/>
       <c r="S56" s="15"/>
       <c r="T56" s="15"/>
@@ -9003,11 +8966,11 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
       <c r="R59" s="15"/>
       <c r="S59" s="15"/>
       <c r="T59" s="15"/>
@@ -9087,11 +9050,11 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
       <c r="R62" s="15"/>
       <c r="S62" s="15"/>
       <c r="T62" s="15"/>
@@ -9171,11 +9134,11 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
       <c r="R65" s="15"/>
       <c r="S65" s="15"/>
       <c r="T65" s="15"/>
@@ -9255,11 +9218,11 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
       <c r="R68" s="15"/>
       <c r="S68" s="15"/>
       <c r="T68" s="15"/>
@@ -9369,8 +9332,8 @@
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
       <c r="N72" s="15"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
       <c r="Q72" s="15"/>
       <c r="R72" s="15"/>
       <c r="S72" s="15"/>
@@ -9537,8 +9500,8 @@
       <c r="L78" s="15"/>
       <c r="M78" s="15"/>
       <c r="N78" s="10"/>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
       <c r="Q78" s="15"/>
       <c r="R78" s="15"/>
       <c r="S78" s="15"/>
@@ -9733,8 +9696,8 @@
       <c r="L85" s="15"/>
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
-      <c r="O85" s="40"/>
-      <c r="P85" s="40"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
       <c r="Q85" s="15"/>
       <c r="R85" s="15"/>
       <c r="S85" s="15"/>
@@ -9789,8 +9752,8 @@
       <c r="L87" s="15"/>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="39"/>
       <c r="Q87" s="15"/>
       <c r="R87" s="15"/>
       <c r="S87" s="15"/>
@@ -9817,8 +9780,8 @@
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
-      <c r="O88" s="40"/>
-      <c r="P88" s="40"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
       <c r="S88" s="15"/>
@@ -9873,8 +9836,8 @@
       <c r="L90" s="15"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
-      <c r="O90" s="40"/>
-      <c r="P90" s="40"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
       <c r="Q90" s="15"/>
       <c r="R90" s="15"/>
       <c r="S90" s="15"/>
@@ -9929,8 +9892,8 @@
       <c r="L92" s="15"/>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
-      <c r="O92" s="40"/>
-      <c r="P92" s="40"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
       <c r="Q92" s="15"/>
       <c r="R92" s="15"/>
       <c r="S92" s="15"/>
@@ -9985,8 +9948,8 @@
       <c r="L94" s="15"/>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
       <c r="Q94" s="15"/>
       <c r="R94" s="15"/>
       <c r="S94" s="15"/>
@@ -10041,8 +10004,8 @@
       <c r="L96" s="15"/>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
-      <c r="O96" s="40"/>
-      <c r="P96" s="40"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
       <c r="Q96" s="15"/>
       <c r="R96" s="15"/>
       <c r="S96" s="15"/>
@@ -10109,7 +10072,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -10124,116 +10087,116 @@
     <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+    <row r="1" spans="1:13" s="22" customFormat="1" ht="18">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>648</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="33" t="s">
+        <v>645</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="34" t="s">
+      <c r="J2" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="K2" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="L2" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="M2" s="33"/>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
+      <c r="A3" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="B3" s="33" t="s">
+        <v>646</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="M2" s="34"/>
-    </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
-      <c r="A3" s="34" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>649</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="G3" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="J3" s="35" t="s">
         <v>629</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="K3" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="L3" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="J3" s="36" t="s">
+    </row>
+    <row r="4" spans="1:13" s="22" customFormat="1">
+      <c r="A4" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="K3" s="34" t="s">
-        <v>632</v>
-      </c>
-      <c r="L3" s="34" t="s">
+      <c r="B4" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="D4" s="15" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="23" customFormat="1">
-      <c r="A4" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>637</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>64</v>
@@ -10252,21 +10215,21 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1">
+    <row r="5" spans="1:13" s="22" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>64</v>
@@ -10285,21 +10248,21 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1">
+    <row r="6" spans="1:13" s="22" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>64</v>
@@ -10318,21 +10281,21 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1">
+    <row r="7" spans="1:13" s="22" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>64</v>
@@ -10351,17 +10314,17 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1">
+    <row r="8" spans="1:13" s="22" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -10380,17 +10343,17 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1">
+    <row r="9" spans="1:13" s="22" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -10409,17 +10372,17 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1">
+    <row r="10" spans="1:13" s="22" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>64</v>
@@ -10438,17 +10401,17 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1">
+    <row r="11" spans="1:13" s="22" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>64</v>
@@ -10467,17 +10430,17 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1">
+    <row r="12" spans="1:13" s="22" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>64</v>
@@ -10496,17 +10459,17 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1">
+    <row r="13" spans="1:13" s="22" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>64</v>
@@ -10525,17 +10488,17 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1">
+    <row r="14" spans="1:13" s="22" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>64</v>
@@ -10554,17 +10517,17 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="23" customFormat="1">
+    <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>64</v>
@@ -10583,17 +10546,17 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1">
+    <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>64</v>
@@ -10612,17 +10575,17 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1">
+    <row r="17" spans="1:13" s="21" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>64</v>
@@ -10641,17 +10604,17 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1">
+    <row r="18" spans="1:13" s="21" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>64</v>
@@ -10670,17 +10633,17 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1">
+    <row r="19" spans="1:13" s="21" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>64</v>
@@ -10699,17 +10662,17 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1">
+    <row r="20" spans="1:13" s="21" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>64</v>
@@ -10728,17 +10691,17 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1">
+    <row r="21" spans="1:13" s="21" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>64</v>
@@ -10757,17 +10720,17 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1">
+    <row r="22" spans="1:13" s="21" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>64</v>
@@ -10786,17 +10749,17 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1">
+    <row r="23" spans="1:13" s="22" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>64</v>
@@ -10815,17 +10778,17 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1">
+    <row r="24" spans="1:13" s="22" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>64</v>
@@ -10844,17 +10807,17 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" s="23" customFormat="1">
+    <row r="25" spans="1:13" s="22" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>64</v>
@@ -10873,17 +10836,17 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" s="23" customFormat="1">
+    <row r="26" spans="1:13" s="22" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>64</v>
@@ -10963,202 +10926,202 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="B31" s="22"/>
+      <c r="B31" s="21"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="B32" s="22"/>
+      <c r="B32" s="21"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="22"/>
+      <c r="B33" s="21"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="22"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="22"/>
+      <c r="B35" s="21"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="22"/>
+      <c r="B36" s="21"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="22"/>
+      <c r="B37" s="21"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="22"/>
+      <c r="B38" s="21"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="22"/>
+      <c r="B39" s="21"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="22"/>
+      <c r="B40" s="21"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="22"/>
+      <c r="B41" s="21"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="22"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="22"/>
+      <c r="B43" s="21"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="22"/>
+      <c r="B44" s="21"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="22"/>
+      <c r="B45" s="21"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="22"/>
+      <c r="B46" s="21"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="22"/>
+      <c r="B47" s="21"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="22"/>
+      <c r="B48" s="21"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="22"/>
+      <c r="B49" s="21"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="22"/>
+      <c r="B50" s="21"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="22"/>
+      <c r="B51" s="21"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="22"/>
+      <c r="B52" s="21"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="22"/>
+      <c r="B53" s="21"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="22"/>
+      <c r="B54" s="21"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="22"/>
+      <c r="B55" s="21"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="22"/>
+      <c r="B56" s="21"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="22"/>
+      <c r="B57" s="21"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="22"/>
+      <c r="B58" s="21"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="22"/>
+      <c r="B59" s="21"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="22"/>
+      <c r="B60" s="21"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="22"/>
+      <c r="B61" s="21"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="22"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="22"/>
+      <c r="B63" s="21"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="22"/>
+      <c r="B64" s="21"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="22"/>
+      <c r="B65" s="21"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="22"/>
+      <c r="B66" s="21"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="22"/>
+      <c r="B67" s="21"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="22"/>
+      <c r="B68" s="21"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="22"/>
+      <c r="B69" s="21"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="22"/>
+      <c r="B70" s="21"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="22"/>
+      <c r="B71" s="21"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="22"/>
+      <c r="B72" s="21"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="22"/>
+      <c r="B73" s="21"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="22"/>
+      <c r="B74" s="21"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="22"/>
+      <c r="B75" s="21"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="22"/>
+      <c r="B76" s="21"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="22"/>
+      <c r="B77" s="21"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="22"/>
+      <c r="B78" s="21"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="22"/>
+      <c r="B79" s="21"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="22"/>
+      <c r="B80" s="21"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="22"/>
+      <c r="B81" s="21"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="22"/>
+      <c r="B82" s="21"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="22"/>
+      <c r="B83" s="21"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="22"/>
+      <c r="B84" s="21"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="22"/>
+      <c r="B85" s="21"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="22"/>
+      <c r="B86" s="21"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="22"/>
+      <c r="B87" s="21"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="22"/>
+      <c r="B88" s="21"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="22"/>
+      <c r="B89" s="21"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="22"/>
+      <c r="B90" s="21"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="22"/>
+      <c r="B91" s="21"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="22"/>
+      <c r="B92" s="21"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="22"/>
+      <c r="B93" s="21"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="22"/>
+      <c r="B94" s="21"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="22"/>
+      <c r="B95" s="21"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="22"/>
+      <c r="B96" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18531,10 +18494,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C328" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D328" t="s">
         <v>68</v>
@@ -18545,10 +18508,10 @@
         <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D329" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -18557,10 +18520,10 @@
         <v>62</v>
       </c>
       <c r="H329" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I329" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -18568,10 +18531,10 @@
         <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D330" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -18588,10 +18551,10 @@
         <v>21</v>
       </c>
       <c r="C331" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D331" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -18608,10 +18571,10 @@
         <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D332" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -18628,10 +18591,10 @@
         <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D333" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -18645,10 +18608,10 @@
         <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D334" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -18657,10 +18620,10 @@
         <v>62</v>
       </c>
       <c r="H334" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I334" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -18668,10 +18631,10 @@
         <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D335" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -18680,10 +18643,10 @@
         <v>62</v>
       </c>
       <c r="H335" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I335" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -18691,10 +18654,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C336" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D336" t="s">
         <v>68</v>
@@ -18705,10 +18668,10 @@
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D337" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -18717,10 +18680,10 @@
         <v>62</v>
       </c>
       <c r="H337" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I337" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18728,10 +18691,10 @@
         <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D338" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -18740,10 +18703,10 @@
         <v>62</v>
       </c>
       <c r="H338" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I338" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -18751,10 +18714,10 @@
         <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D339" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -18771,10 +18734,10 @@
         <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D340" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -18791,10 +18754,10 @@
         <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D341" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -18808,10 +18771,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>68</v>
@@ -18835,10 +18798,10 @@
         <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D343" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -18847,10 +18810,10 @@
         <v>62</v>
       </c>
       <c r="H343" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I343" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -18864,10 +18827,10 @@
         <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D344" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -18902,10 +18865,10 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C345" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>68</v>
@@ -18916,10 +18879,10 @@
         <v>21</v>
       </c>
       <c r="C346" t="s">
+        <v>520</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -19130,10 +19093,10 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C357" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D357" t="s">
         <v>68</v>
@@ -19144,10 +19107,10 @@
         <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D358" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -19164,10 +19127,10 @@
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D359" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -19184,10 +19147,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>68</v>
@@ -19200,10 +19163,10 @@
         <v>21</v>
       </c>
       <c r="C361" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D361" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -19213,10 +19176,10 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I361" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
@@ -19227,10 +19190,10 @@
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D362" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -19267,10 +19230,10 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C363" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>68</v>
@@ -19281,10 +19244,10 @@
         <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D364" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -19301,10 +19264,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C365" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>68</v>
@@ -19315,10 +19278,10 @@
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D366" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -19370,213 +19333,213 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:7" s="21" customFormat="1">
+      <c r="A2" s="27" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="E2" s="21" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="21" customFormat="1">
+      <c r="A3" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>651</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E3" s="21" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="21" customFormat="1">
+      <c r="A4" s="27" t="s">
+        <v>592</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>652</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E4" s="21" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="21" customFormat="1">
+      <c r="A5" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>653</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="22" customFormat="1">
-      <c r="A3" s="28" t="s">
-        <v>592</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="E5" s="21" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="21" customFormat="1">
+      <c r="A6" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C6" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="22" customFormat="1">
-      <c r="A4" s="28" t="s">
-        <v>594</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="E6" s="21" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="21" customFormat="1">
+      <c r="A7" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="C7" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="21" customFormat="1">
+      <c r="A8" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="21" customFormat="1">
+      <c r="A9" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="22" customFormat="1">
-      <c r="A5" s="28" t="s">
-        <v>596</v>
-      </c>
-      <c r="B5" s="22" t="s">
+      <c r="E9" s="21" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="27" t="s">
+        <v>603</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="21" customFormat="1">
+      <c r="A11" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>732</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="21" customFormat="1">
+      <c r="A12" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="22" customFormat="1">
-      <c r="A6" s="28" t="s">
-        <v>598</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="22" customFormat="1">
-      <c r="A7" s="28" t="s">
-        <v>600</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="22" customFormat="1">
-      <c r="A8" s="28" t="s">
-        <v>440</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="22" customFormat="1">
-      <c r="A9" s="28" t="s">
-        <v>603</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>658</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="28" t="s">
-        <v>605</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>659</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="C12" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>732</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1">
-      <c r="A11" s="28" t="s">
-        <v>733</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>734</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>735</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="22" customFormat="1">
-      <c r="A12" s="28" t="s">
-        <v>732</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>736</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>735</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="22" customFormat="1"/>
-    <row r="14" spans="1:7" s="22" customFormat="1"/>
+    </row>
+    <row r="13" spans="1:7" s="21" customFormat="1"/>
+    <row r="14" spans="1:7" s="21" customFormat="1"/>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="E15" t="s">
+        <v>555</v>
+      </c>
+      <c r="G15" t="s">
         <v>572</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="E15" t="s">
-        <v>557</v>
-      </c>
-      <c r="G15" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -19587,10 +19550,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -19601,66 +19564,66 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="22" customFormat="1"/>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="21" customFormat="1"/>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L20" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="O20" t="s">
-        <v>566</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="U20" s="22" t="s">
-        <v>555</v>
+        <v>564</v>
+      </c>
+      <c r="R20" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G21" t="s">
         <v>455</v>
       </c>
       <c r="H21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="J21" s="21">
+        <v>538</v>
+      </c>
+      <c r="J21" s="20">
         <v>0.01</v>
       </c>
-      <c r="K21" s="23" t="s">
-        <v>580</v>
+      <c r="K21" s="22" t="s">
+        <v>578</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M21">
         <v>30</v>
       </c>
       <c r="N21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O21" t="s">
         <v>4</v>
@@ -19668,8 +19631,8 @@
       <c r="P21">
         <v>30</v>
       </c>
-      <c r="Q21" s="22" t="s">
-        <v>582</v>
+      <c r="Q21" s="21" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -19683,229 +19646,229 @@
         <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="J22" s="21">
+        <v>543</v>
+      </c>
+      <c r="J22" s="20">
         <v>0.01</v>
       </c>
       <c r="K22" t="s">
-        <v>579</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>567</v>
+        <v>577</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>565</v>
       </c>
       <c r="M22">
         <v>5</v>
       </c>
-      <c r="N22" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>567</v>
+      <c r="N22" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>565</v>
       </c>
       <c r="P22">
         <v>3</v>
       </c>
       <c r="Q22" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="J23" s="21">
+        <v>558</v>
+      </c>
+      <c r="J23" s="20">
         <v>45036000000000</v>
       </c>
       <c r="K23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M23">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>586</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>568</v>
+        <v>584</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>566</v>
       </c>
       <c r="P23">
         <v>0.85</v>
       </c>
       <c r="Q23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L24" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M24">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>584</v>
-      </c>
-      <c r="O24" s="23" t="s">
-        <v>569</v>
+        <v>582</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>567</v>
       </c>
       <c r="P24">
         <v>2</v>
       </c>
       <c r="Q24" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>540</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="M25" s="21">
+        <v>563</v>
+      </c>
+      <c r="M25" s="20">
         <v>0.01</v>
       </c>
-      <c r="N25" s="23" t="s">
-        <v>585</v>
-      </c>
-      <c r="O25" s="23" t="s">
-        <v>570</v>
+      <c r="N25" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>568</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
-      <c r="Q25" s="22" t="s">
-        <v>590</v>
+      <c r="Q25" s="21" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="J26" s="23">
+        <v>541</v>
+      </c>
+      <c r="J26" s="22">
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="M26" s="21">
+        <v>538</v>
+      </c>
+      <c r="M26" s="20">
         <v>0.01</v>
       </c>
-      <c r="N26" s="23" t="s">
-        <v>580</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>571</v>
+      <c r="N26" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>569</v>
       </c>
       <c r="P26">
         <v>0.8</v>
       </c>
       <c r="Q26" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="M27" s="21">
+        <v>543</v>
+      </c>
+      <c r="M27" s="20">
         <v>0.01</v>
       </c>
-      <c r="N27" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="O27" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="P27" s="23" t="s">
-        <v>542</v>
+      <c r="N27" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="L28" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="M28" s="21">
+        <v>558</v>
+      </c>
+      <c r="M28" s="20">
         <v>45036000000000</v>
       </c>
-      <c r="N28" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="O28" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="P28" s="23">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="22" t="s">
+      <c r="N28" s="21" t="s">
         <v>576</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="P28" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="21" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="L29" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="M29" s="22">
+        <v>559</v>
+      </c>
+      <c r="M29" s="21">
         <v>100</v>
       </c>
-      <c r="N29" s="22" t="s">
-        <v>577</v>
+      <c r="N29" s="21" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="L30" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="L31" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="M31" s="23">
-        <v>2</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>576</v>
+        <v>541</v>
+      </c>
+      <c r="M31" s="22">
+        <v>2</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
